--- a/测试数据/中肿xlsx文件_short.xlsx
+++ b/测试数据/中肿xlsx文件_short.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\public\测试数据\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\ye-newest\测试数据\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFECB47B-1630-4E13-91CC-21553773C34E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B1558D-33C1-4063-A682-6BEB8E49AD20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="33">
   <si>
     <t>保存机构名称</t>
   </si>
@@ -82,9 +82,6 @@
     <t>健康</t>
   </si>
   <si>
-    <t>woman</t>
-  </si>
-  <si>
     <t>500ul</t>
   </si>
   <si>
@@ -113,13 +110,25 @@
   </si>
   <si>
     <t>221376-2022769</t>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>男</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不详</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,6 +148,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -148,7 +172,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -171,11 +195,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -184,6 +219,10 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -486,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R26" sqref="R26"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -504,7 +543,7 @@
     <col min="14" max="14" width="16.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -547,8 +586,11 @@
       <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="O1" s="4" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -573,34 +615,37 @@
       <c r="H2" t="s">
         <v>19</v>
       </c>
-      <c r="I2" t="s">
-        <v>20</v>
+      <c r="I2" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="J2">
         <v>42</v>
       </c>
       <c r="K2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" t="s">
         <v>21</v>
       </c>
-      <c r="L2" t="s">
-        <v>22</v>
-      </c>
       <c r="M2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N2" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
       <c r="D3" s="1">
         <v>42369</v>
@@ -617,34 +662,37 @@
       <c r="H3" t="s">
         <v>19</v>
       </c>
-      <c r="I3" t="s">
-        <v>20</v>
+      <c r="I3" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="J3">
         <v>42</v>
       </c>
       <c r="K3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N3" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="O3">
+        <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" s="1">
         <v>42369</v>
@@ -661,34 +709,37 @@
       <c r="H4" t="s">
         <v>19</v>
       </c>
-      <c r="I4" t="s">
-        <v>20</v>
+      <c r="I4" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="J4">
         <v>42</v>
       </c>
       <c r="K4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N4" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="O4">
+        <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" s="1">
         <v>42369</v>
@@ -705,34 +756,37 @@
       <c r="H5" t="s">
         <v>19</v>
       </c>
-      <c r="I5" t="s">
-        <v>20</v>
+      <c r="I5" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="J5">
         <v>42</v>
       </c>
       <c r="K5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N5" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="O5">
+        <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" s="1">
         <v>42369</v>
@@ -749,34 +803,37 @@
       <c r="H6" t="s">
         <v>19</v>
       </c>
-      <c r="I6" t="s">
-        <v>20</v>
+      <c r="I6" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="J6">
         <v>42</v>
       </c>
       <c r="K6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N6" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="O6">
+        <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" s="1">
         <v>42369</v>
@@ -793,23 +850,26 @@
       <c r="H7" t="s">
         <v>19</v>
       </c>
-      <c r="I7" t="s">
-        <v>20</v>
+      <c r="I7" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="J7">
         <v>42</v>
       </c>
       <c r="K7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N7" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="O7">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/测试数据/中肿xlsx文件_short.xlsx
+++ b/测试数据/中肿xlsx文件_short.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\ye-newest\测试数据\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B1558D-33C1-4063-A682-6BEB8E49AD20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA5E9658-DA3E-453E-83D8-D9081ECF25EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2280" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="35">
   <si>
     <t>保存机构名称</t>
   </si>
@@ -121,6 +121,14 @@
   </si>
   <si>
     <t>不详</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>健康</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -528,7 +536,7 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -662,9 +670,7 @@
       <c r="H3" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="5" t="s">
-        <v>31</v>
-      </c>
+      <c r="I3" s="5"/>
       <c r="J3">
         <v>42</v>
       </c>
@@ -718,8 +724,8 @@
       <c r="K4" t="s">
         <v>25</v>
       </c>
-      <c r="L4" t="s">
-        <v>21</v>
+      <c r="L4" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="M4" t="s">
         <v>22</v>
@@ -753,8 +759,8 @@
       <c r="G5" t="s">
         <v>18</v>
       </c>
-      <c r="H5" t="s">
-        <v>19</v>
+      <c r="H5" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>31</v>
@@ -800,14 +806,14 @@
       <c r="G6" t="s">
         <v>18</v>
       </c>
-      <c r="H6" t="s">
-        <v>19</v>
+      <c r="H6" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>31</v>
       </c>
       <c r="J6">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="K6" t="s">
         <v>25</v>
@@ -844,15 +850,10 @@
       <c r="F7">
         <v>314827</v>
       </c>
-      <c r="G7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>31</v>
-      </c>
+      <c r="H7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="5"/>
       <c r="J7">
         <v>42</v>
       </c>
